--- a/Code/Game_Study/计划表.xlsx
+++ b/Code/Game_Study/计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>请先点击我！</t>
   </si>
@@ -59,6 +59,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>不仅完成客户端搭建，还完成服务器与客户端的通信。
@@ -122,16 +123,37 @@
     <t>未完成底线目标，只是画了格子，鼠标不能定位，
 记录一次黑事件</t>
   </si>
+  <si>
+    <t>这周忘了写计划，自罚黑事件一次</t>
+  </si>
+  <si>
+    <t>基本完成服务器，除了音效。进展很好，超出预期。但由于计划本来就应该做这么多，所以不记录白事件了。</t>
+  </si>
+  <si>
+    <t>家里有事，进展不多</t>
+  </si>
+  <si>
+    <t>完成boxes小游戏的所有功能</t>
+  </si>
+  <si>
+    <t>理解游戏中的接口和算法</t>
+  </si>
+  <si>
+    <t>对整个boxes小游戏的理解都很清晰</t>
+  </si>
+  <si>
+    <t>在这里强调一下，一般来说达到预期目标即可，不要为了完成目标而完成目标，自己安排</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -171,14 +193,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,123 +283,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -347,139 +369,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,43 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,69 +574,6 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.35"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,6 +604,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -653,6 +651,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -661,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,137 +695,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,6 +838,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -850,6 +875,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1196,84 +1233,84 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="39.875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="45.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="39.875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="90" customHeight="1" spans="1:16">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:17">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="19" customHeight="1" spans="1:4">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>42595.7916666667</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1290,7 +1327,7 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1298,7 +1335,7 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1306,13 +1343,13 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1"/>
     <row r="10" s="3" customFormat="1" spans="1:5">
-      <c r="A10" s="14">
+      <c r="A10" s="15">
         <v>42602.7916666667</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1332,7 +1369,7 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1348,12 +1385,57 @@
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
+    <row r="15" s="3" customFormat="1" spans="1:1">
+      <c r="A15" s="15">
+        <v>42609.7916666667</v>
+      </c>
+    </row>
+    <row r="16" ht="29" customHeight="1" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" ht="48" customHeight="1" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" ht="27" spans="1:5">
+      <c r="A20" s="19">
+        <v>42616.7916666667</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:F1"/>
